--- a/Implementation/files/gens_nm_panell.xlsx
+++ b/Implementation/files/gens_nm_panell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master_UOC/TFM/TFM_code/analysis/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master_UOC/TFM/TFM_code/Implementation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0095C423-9855-9747-B939-B91915A007BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A64B9-5AD0-CE44-B242-7F4B11EB366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mama" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="136">
   <si>
     <t>ATM</t>
   </si>
@@ -853,9 +853,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -971,6 +971,22 @@
       </c>
       <c r="B14" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1000,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F967EDB-B16A-214B-B4F3-CFD1C74329DB}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
